--- a/Projeto_Login/Dados.xlsx
+++ b/Projeto_Login/Dados.xlsx
@@ -2,16 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Dados" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Dados" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -414,31 +412,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="110" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -455,48 +438,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>abc</t>
+          <t>a</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>gAAAAABoAAhYMTKwlH2j6sPM_MkjzZEVFW3jJTt5B_ajJUjBBD-0PPmpTJWl8N1vyaLBaclIDxLWCRPdnaFim6nCkJygKCBwSQ==</t>
         </is>
       </c>
     </row>
